--- a/data/mall-cloud-alibaba/mall-security_structure.xlsx
+++ b/data/mall-cloud-alibaba/mall-security_structure.xlsx
@@ -600,33 +600,33 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>dynamicSecurityService</t>
+  </si>
+  <si>
     <t>configAttributeMap</t>
   </si>
   <si>
-    <t>dynamicSecurityService</t>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>CLAIM_KEY_USERNAME</t>
   </si>
   <si>
-    <t>expiration</t>
-  </si>
-  <si>
     <t>CLAIM_KEY_CREATED</t>
   </si>
   <si>
     <t>tokenHead</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
@@ -639,25 +639,25 @@
     <t>applicationContext</t>
   </si>
   <si>
+    <t>logger</t>
+  </si>
+  <si>
+    <t>org.apache.commons.logging.Log</t>
+  </si>
+  <si>
+    <t>tokenHeader</t>
+  </si>
+  <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
+    <t>org.springframework.security.core.userdetails.UserDetailsService</t>
+  </si>
+  <si>
     <t>ALREADY_FILTERED_SUFFIX</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>org.springframework.security.core.userdetails.UserDetailsService</t>
-  </si>
-  <si>
-    <t>tokenHeader</t>
-  </si>
-  <si>
     <t>jwtTokenUtil</t>
-  </si>
-  <si>
-    <t>logger</t>
-  </si>
-  <si>
-    <t>org.apache.commons.logging.Log</t>
   </si>
   <si>
     <t>urls</t>
@@ -6920,7 +6920,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -6934,7 +6934,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -6948,7 +6948,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -6962,7 +6962,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -6976,7 +6976,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -6984,7 +6984,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>42</v>
@@ -6998,13 +6998,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>42</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -7068,7 +7068,7 @@
         <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>42</v>
@@ -7096,13 +7096,13 @@
         <v>136</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>42</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
@@ -7110,13 +7110,13 @@
         <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
@@ -7124,13 +7124,13 @@
         <v>117</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>206</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>207</v>
       </c>
     </row>
     <row r="18">
@@ -7138,7 +7138,7 @@
         <v>117</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>42</v>
@@ -7158,7 +7158,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
@@ -7166,13 +7166,13 @@
         <v>117</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -7180,7 +7180,7 @@
         <v>117</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>42</v>
@@ -7194,13 +7194,13 @@
         <v>117</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
